--- a/02. Data science/2. Analysis/prob/DB/Student_Info_DB_Scheme.xlsx
+++ b/02. Data science/2. Analysis/prob/DB/Student_Info_DB_Scheme.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_local_repository\02. Data Science\2. Analysis\3. DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20070" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Student_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,13 +74,130 @@
   </si>
   <si>
     <t>Java, C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITT002</t>
+  </si>
+  <si>
+    <t>ITT003</t>
+  </si>
+  <si>
+    <t>ITT004</t>
+  </si>
+  <si>
+    <t>ITT005</t>
+  </si>
+  <si>
+    <t>ITT006</t>
+  </si>
+  <si>
+    <t>ITT007</t>
+  </si>
+  <si>
+    <t>ITT008</t>
+  </si>
+  <si>
+    <t>이영호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박규동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민현기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치외교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천문우주과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문방송학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계빅데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C,C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java,Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS,R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C,Verilog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verilog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -224,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -401,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,22 +567,153 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
